--- a/lazzen-hec-service-server/src/main/resources/template/water.xlsx
+++ b/lazzen-hec-service-server/src/main/resources/template/water.xlsx
@@ -44,7 +44,7 @@
     <t>{endTime}</t>
   </si>
   <si>
-    <t>用水（单位L）</t>
+    <t>用水（单位 t/吨）</t>
   </si>
   <si>
     <t>起始时间值</t>
